--- a/config_1.5/game_module_config_cjj.xlsx
+++ b/config_1.5/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3210,10 +3210,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>节日特惠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_025_JRTHManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3856,68 +3852,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月4日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>饺子收集榜 → 金元宝榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月4日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签→元旦活动</t>
+    <t>双十二页签→元旦活动→欢乐庆典</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4002,7 +3961,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4023,25 +3982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4089,7 +4030,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4135,15 +4076,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4151,12 +4083,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4168,13 +4094,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -4183,61 +4103,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4517,13 +4389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:AJ305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5215,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10374,7 +10246,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10489,7 +10361,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -11027,134 +10899,134 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="49">
+    <row r="257" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="16">
         <v>256</v>
       </c>
-      <c r="B257" s="47" t="s">
+      <c r="B257" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="47" t="s">
+      <c r="C257" s="25" t="s">
+        <v>927</v>
+      </c>
+      <c r="D257" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="D257" s="47" t="s">
+      <c r="E257" s="26">
+        <v>1</v>
+      </c>
+      <c r="F257" s="26">
+        <v>1</v>
+      </c>
+      <c r="G257" s="26">
+        <v>1</v>
+      </c>
+      <c r="I257" s="25" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
+        <v>257</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="E258" s="17">
+        <v>0</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="I258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="48">
-        <v>1</v>
-      </c>
-      <c r="F257" s="48">
-        <v>1</v>
-      </c>
-      <c r="G257" s="48">
-        <v>1</v>
-      </c>
-      <c r="I257" s="47" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="19">
-        <v>257</v>
-      </c>
-      <c r="B258" s="18" t="s">
+    </row>
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
+        <v>258</v>
+      </c>
+      <c r="B259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C258" s="18" t="s">
-        <v>758</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="E258" s="20">
-        <v>0</v>
-      </c>
-      <c r="F258" s="20">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>1</v>
-      </c>
-      <c r="I258" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="19">
-        <v>258</v>
-      </c>
-      <c r="B259" s="18" t="s">
+      <c r="C259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="D259" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="E259" s="17">
+        <v>0</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
+        <v>259</v>
+      </c>
+      <c r="B260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="E259" s="20">
-        <v>0</v>
-      </c>
-      <c r="F259" s="20">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>1</v>
-      </c>
-      <c r="I259" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="19">
-        <v>259</v>
-      </c>
-      <c r="B260" s="18" t="s">
+      <c r="C260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="D260" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
+    </row>
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
+        <v>260</v>
+      </c>
+      <c r="B261" s="15" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="19">
-        <v>260</v>
-      </c>
-      <c r="B261" s="18" t="s">
+      <c r="C261" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="D261" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>770</v>
-      </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11162,39 +11034,39 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>771</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D262" t="s">
         <v>772</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>773</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="15" t="s">
         <v>777</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>778</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11209,1093 +11081,1258 @@
         <v>644</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="19">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
         <v>263</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="D264" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
+    </row>
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="16">
+        <v>264</v>
+      </c>
+      <c r="B265" s="15" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="19">
-        <v>264</v>
-      </c>
-      <c r="B265" s="18" t="s">
+      <c r="C265" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="D265" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>1</v>
+      </c>
+      <c r="G265" s="17">
+        <v>1</v>
+      </c>
+      <c r="I265" s="15" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
+        <v>265</v>
+      </c>
+      <c r="B266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="E265" s="20">
-        <v>0</v>
-      </c>
-      <c r="F265" s="20">
-        <v>1</v>
-      </c>
-      <c r="G265" s="20">
-        <v>1</v>
-      </c>
-      <c r="I265" s="18" t="s">
+      <c r="C266" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D266" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="16">
+        <v>266</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="16">
+        <v>267</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E268" s="17">
+        <v>0</v>
+      </c>
+      <c r="F268" s="17">
+        <v>0</v>
+      </c>
+      <c r="G268" s="17">
+        <v>0</v>
+      </c>
+      <c r="I268" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="16">
+        <v>268</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="E269" s="17">
+        <v>0</v>
+      </c>
+      <c r="F269" s="17">
+        <v>1</v>
+      </c>
+      <c r="G269" s="17">
+        <v>1</v>
+      </c>
+      <c r="I269" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="16">
+        <v>269</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D270" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="E270" s="17">
+        <v>0</v>
+      </c>
+      <c r="F270" s="17">
+        <v>0</v>
+      </c>
+      <c r="G270" s="17">
+        <v>0</v>
+      </c>
+      <c r="I270" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="16">
+        <v>270</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="16">
+        <v>271</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="16">
+        <v>272</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="16">
+        <v>273</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="E274" s="17">
+        <v>1</v>
+      </c>
+      <c r="F274" s="17">
+        <v>1</v>
+      </c>
+      <c r="G274" s="17">
+        <v>1</v>
+      </c>
+      <c r="I274" s="19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="16">
+        <v>274</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="19" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="16">
+        <v>275</v>
+      </c>
+      <c r="B276" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="E276" s="17">
+        <v>1</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="16">
+        <v>276</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="E277" s="17">
+        <v>1</v>
+      </c>
+      <c r="F277" s="17">
+        <v>1</v>
+      </c>
+      <c r="G277" s="17">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="16">
+        <v>277</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="E278" s="17">
+        <v>0</v>
+      </c>
+      <c r="F278" s="17">
+        <v>0</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+      <c r="I278" s="19" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="16">
+        <v>278</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="16">
+        <v>279</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="16">
+        <v>280</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="16">
+        <v>281</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="16">
+        <v>282</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="19" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="16">
+        <v>284</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="E285" s="17">
+        <v>1</v>
+      </c>
+      <c r="F285" s="17">
+        <v>1</v>
+      </c>
+      <c r="G285" s="17">
+        <v>1</v>
+      </c>
+      <c r="I285" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="19">
-        <v>265</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="C266" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="19">
-        <v>266</v>
-      </c>
-      <c r="B267" s="18" t="s">
-        <v>790</v>
-      </c>
-      <c r="C267" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="19">
-        <v>267</v>
-      </c>
-      <c r="B268" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>796</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>795</v>
-      </c>
-      <c r="E268" s="20">
-        <v>0</v>
-      </c>
-      <c r="F268" s="20">
-        <v>0</v>
-      </c>
-      <c r="G268" s="20">
-        <v>0</v>
-      </c>
-      <c r="I268" s="24" t="s">
+    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="16">
+        <v>285</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="E286" s="17">
+        <v>1</v>
+      </c>
+      <c r="F286" s="17">
+        <v>1</v>
+      </c>
+      <c r="G286" s="17">
+        <v>1</v>
+      </c>
+      <c r="I286" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="16">
+        <v>286</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="E287" s="17">
+        <v>1</v>
+      </c>
+      <c r="F287" s="17">
+        <v>1</v>
+      </c>
+      <c r="G287" s="17">
+        <v>1</v>
+      </c>
+      <c r="I287" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="E288" s="17">
+        <v>0</v>
+      </c>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
+      <c r="G288" s="17">
+        <v>1</v>
+      </c>
+      <c r="I288" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="16">
+        <v>288</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="D289" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="E289" s="17">
+        <v>0</v>
+      </c>
+      <c r="F289" s="17">
+        <v>0</v>
+      </c>
+      <c r="G289" s="17">
+        <v>0</v>
+      </c>
+      <c r="I289" s="15" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="19">
-        <v>268</v>
-      </c>
-      <c r="B269" s="18" t="s">
-        <v>800</v>
-      </c>
-      <c r="C269" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="E269" s="20">
-        <v>0</v>
-      </c>
-      <c r="F269" s="20">
-        <v>1</v>
-      </c>
-      <c r="G269" s="20">
-        <v>1</v>
-      </c>
-      <c r="I269" s="24" t="s">
+    <row r="290" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="16">
+        <v>289</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="16">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>872</v>
+      </c>
+      <c r="C291" t="s">
+        <v>873</v>
+      </c>
+      <c r="D291" t="s">
+        <v>874</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="292" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="16">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>876</v>
+      </c>
+      <c r="C292" t="s">
+        <v>877</v>
+      </c>
+      <c r="D292" t="s">
+        <v>878</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="293" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="16">
+        <v>292</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="15">
-        <v>269</v>
-      </c>
-      <c r="B270" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="C270" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="D270" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="E270" s="17">
-        <v>0</v>
-      </c>
-      <c r="F270" s="17">
-        <v>0</v>
-      </c>
-      <c r="G270" s="17">
-        <v>0</v>
-      </c>
-      <c r="H270" s="17"/>
-      <c r="I270" s="21" t="s">
+    <row r="294" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="15">
-        <v>270</v>
-      </c>
-      <c r="B271" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="C271" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="H271" s="17"/>
-      <c r="I271" s="21" t="s">
+    <row r="295" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="16">
+        <v>294</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="19">
-        <v>271</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>807</v>
-      </c>
-      <c r="C272" s="18" t="s">
-        <v>809</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>808</v>
-      </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="19">
-        <v>272</v>
-      </c>
-      <c r="B273" s="18" t="s">
-        <v>811</v>
-      </c>
-      <c r="C273" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="D273" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="E273" s="20">
-        <v>1</v>
-      </c>
-      <c r="F273" s="20">
-        <v>1</v>
-      </c>
-      <c r="G273" s="20">
-        <v>1</v>
-      </c>
-      <c r="I273" s="24" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="19">
-        <v>273</v>
-      </c>
-      <c r="B274" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="C274" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-      <c r="I274" s="24" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="19">
-        <v>274</v>
-      </c>
-      <c r="B275" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="C275" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>819</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="I275" s="24" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="31">
-        <v>275</v>
-      </c>
-      <c r="B276" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="C276" s="32" t="s">
-        <v>822</v>
-      </c>
-      <c r="D276" s="45" t="s">
-        <v>824</v>
-      </c>
-      <c r="E276" s="33">
-        <v>1</v>
-      </c>
-      <c r="F276" s="33">
-        <v>1</v>
-      </c>
-      <c r="G276" s="33">
-        <v>1</v>
-      </c>
-      <c r="I276" s="34" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="19">
-        <v>276</v>
-      </c>
-      <c r="B277" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="35">
-        <v>277</v>
-      </c>
-      <c r="B278" s="36" t="s">
-        <v>829</v>
-      </c>
-      <c r="C278" s="36" t="s">
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="16">
+        <v>295</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="E296" s="17">
+        <v>0</v>
+      </c>
+      <c r="F296" s="17">
+        <v>0</v>
+      </c>
+      <c r="G296" s="17">
+        <v>0</v>
+      </c>
+      <c r="H296" s="17"/>
+      <c r="I296" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+      <c r="M296" s="17"/>
+      <c r="N296" s="17"/>
+      <c r="O296" s="17"/>
+      <c r="P296" s="17"/>
+      <c r="Q296" s="17"/>
+      <c r="R296" s="17"/>
+      <c r="S296" s="17"/>
+      <c r="T296" s="17"/>
+      <c r="U296" s="17"/>
+      <c r="V296" s="17"/>
+      <c r="W296" s="17"/>
+      <c r="X296" s="17"/>
+      <c r="Y296" s="17"/>
+      <c r="Z296" s="17"/>
+      <c r="AA296" s="17"/>
+      <c r="AB296" s="17"/>
+      <c r="AC296" s="17"/>
+      <c r="AD296" s="17"/>
+      <c r="AE296" s="17"/>
+      <c r="AF296" s="17"/>
+      <c r="AG296" s="17"/>
+      <c r="AH296" s="17"/>
+      <c r="AI296" s="17"/>
+      <c r="AJ296" s="17"/>
+    </row>
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="16">
+        <v>296</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="E297" s="17">
+        <v>0</v>
+      </c>
+      <c r="F297" s="17">
+        <v>0</v>
+      </c>
+      <c r="G297" s="17">
+        <v>0</v>
+      </c>
+      <c r="H297" s="17"/>
+      <c r="I297" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="17"/>
+      <c r="R297" s="17"/>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="17"/>
+      <c r="V297" s="17"/>
+      <c r="W297" s="17"/>
+      <c r="X297" s="17"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="17"/>
+      <c r="AA297" s="17"/>
+      <c r="AB297" s="17"/>
+      <c r="AC297" s="17"/>
+      <c r="AD297" s="17"/>
+      <c r="AE297" s="17"/>
+      <c r="AF297" s="17"/>
+      <c r="AG297" s="17"/>
+      <c r="AH297" s="17"/>
+      <c r="AI297" s="17"/>
+      <c r="AJ297" s="17"/>
+    </row>
+    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="16">
+        <v>297</v>
+      </c>
+      <c r="B298" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="D278" s="37" t="s">
-        <v>830</v>
-      </c>
-      <c r="E278" s="38">
-        <v>0</v>
-      </c>
-      <c r="F278" s="38">
-        <v>0</v>
-      </c>
-      <c r="G278" s="38">
-        <v>0</v>
-      </c>
-      <c r="I278" s="39" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="19">
-        <v>278</v>
-      </c>
-      <c r="B279" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="24" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="19">
-        <v>279</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="19">
-        <v>280</v>
-      </c>
-      <c r="B281" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C281" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="19">
-        <v>281</v>
-      </c>
-      <c r="B282" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="19">
-        <v>282</v>
-      </c>
-      <c r="B283" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>851</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="19">
-        <v>283</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>848</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="26">
-        <v>284</v>
-      </c>
-      <c r="B285" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="C285" s="28" t="s">
-        <v>858</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="30" t="s">
+      <c r="C298" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="D298" s="26"/>
+      <c r="E298" s="26">
+        <v>1</v>
+      </c>
+      <c r="F298" s="26">
+        <v>1</v>
+      </c>
+      <c r="G298" s="26">
+        <v>1</v>
+      </c>
+      <c r="H298" s="26"/>
+      <c r="I298" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="17"/>
+      <c r="R298" s="17"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="17"/>
+      <c r="V298" s="17"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="17"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="17"/>
+      <c r="AA298" s="17"/>
+      <c r="AB298" s="17"/>
+      <c r="AC298" s="17"/>
+      <c r="AD298" s="17"/>
+      <c r="AE298" s="17"/>
+      <c r="AF298" s="17"/>
+      <c r="AG298" s="17"/>
+      <c r="AH298" s="17"/>
+      <c r="AI298" s="17"/>
+      <c r="AJ298" s="17"/>
+    </row>
+    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="16">
+        <v>298</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="E299" s="17">
+        <v>0</v>
+      </c>
+      <c r="F299" s="17">
+        <v>0</v>
+      </c>
+      <c r="G299" s="17">
+        <v>0</v>
+      </c>
+      <c r="H299" s="17"/>
+      <c r="I299" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="17"/>
+      <c r="N299" s="17"/>
+      <c r="O299" s="17"/>
+      <c r="P299" s="17"/>
+      <c r="Q299" s="17"/>
+      <c r="R299" s="17"/>
+      <c r="S299" s="17"/>
+      <c r="T299" s="17"/>
+      <c r="U299" s="17"/>
+      <c r="V299" s="17"/>
+      <c r="W299" s="17"/>
+      <c r="X299" s="17"/>
+      <c r="Y299" s="17"/>
+      <c r="Z299" s="17"/>
+      <c r="AA299" s="17"/>
+      <c r="AB299" s="17"/>
+      <c r="AC299" s="17"/>
+      <c r="AD299" s="17"/>
+      <c r="AE299" s="17"/>
+      <c r="AF299" s="17"/>
+      <c r="AG299" s="17"/>
+      <c r="AH299" s="17"/>
+      <c r="AI299" s="17"/>
+      <c r="AJ299" s="17"/>
+    </row>
+    <row r="300" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="16">
+        <v>299</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E300" s="17">
+        <v>1</v>
+      </c>
+      <c r="F300" s="17">
+        <v>1</v>
+      </c>
+      <c r="G300" s="17">
+        <v>1</v>
+      </c>
+      <c r="H300" s="17"/>
+      <c r="I300" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+      <c r="M300" s="17"/>
+      <c r="N300" s="17"/>
+      <c r="O300" s="17"/>
+      <c r="P300" s="17"/>
+      <c r="Q300" s="17"/>
+      <c r="R300" s="17"/>
+      <c r="S300" s="17"/>
+      <c r="T300" s="17"/>
+      <c r="U300" s="17"/>
+      <c r="V300" s="17"/>
+      <c r="W300" s="17"/>
+      <c r="X300" s="17"/>
+      <c r="Y300" s="17"/>
+      <c r="Z300" s="17"/>
+      <c r="AA300" s="17"/>
+      <c r="AB300" s="17"/>
+      <c r="AC300" s="17"/>
+      <c r="AD300" s="17"/>
+      <c r="AE300" s="17"/>
+      <c r="AF300" s="17"/>
+      <c r="AG300" s="17"/>
+      <c r="AH300" s="17"/>
+      <c r="AI300" s="17"/>
+      <c r="AJ300" s="17"/>
+    </row>
+    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="16">
+        <v>300</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="C301" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="E301" s="26">
+        <v>1</v>
+      </c>
+      <c r="F301" s="26">
+        <v>1</v>
+      </c>
+      <c r="G301" s="26">
+        <v>1</v>
+      </c>
+      <c r="H301" s="26"/>
+      <c r="I301" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="17"/>
+      <c r="Q301" s="17"/>
+      <c r="R301" s="17"/>
+      <c r="S301" s="17"/>
+      <c r="T301" s="17"/>
+      <c r="U301" s="17"/>
+      <c r="V301" s="17"/>
+      <c r="W301" s="17"/>
+      <c r="X301" s="17"/>
+      <c r="Y301" s="17"/>
+      <c r="Z301" s="17"/>
+      <c r="AA301" s="17"/>
+      <c r="AB301" s="17"/>
+      <c r="AC301" s="17"/>
+      <c r="AD301" s="17"/>
+      <c r="AE301" s="17"/>
+      <c r="AF301" s="17"/>
+      <c r="AG301" s="17"/>
+      <c r="AH301" s="17"/>
+      <c r="AI301" s="17"/>
+      <c r="AJ301" s="17"/>
+    </row>
+    <row r="302" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="16">
+        <v>301</v>
+      </c>
+      <c r="B302" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="C302" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="E302" s="26">
+        <v>1</v>
+      </c>
+      <c r="F302" s="26">
+        <v>1</v>
+      </c>
+      <c r="G302" s="26">
+        <v>1</v>
+      </c>
+      <c r="H302" s="26"/>
+      <c r="I302" s="25" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="16">
+        <v>302</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="I303" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="19">
-        <v>285</v>
-      </c>
-      <c r="B286" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="19">
-        <v>286</v>
-      </c>
-      <c r="B287" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="C287" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="19">
-        <v>287</v>
-      </c>
-      <c r="B288" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>864</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="31">
-        <v>288</v>
-      </c>
-      <c r="B289" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="C289" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="E289" s="33">
-        <v>0</v>
-      </c>
-      <c r="F289" s="33">
-        <v>0</v>
-      </c>
-      <c r="G289" s="33">
-        <v>0</v>
-      </c>
-      <c r="I289" s="32" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="19">
-        <v>289</v>
-      </c>
-      <c r="B290" s="18" t="s">
-        <v>869</v>
-      </c>
-      <c r="C290" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>871</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="19">
-        <v>290</v>
-      </c>
-      <c r="B291" t="s">
-        <v>873</v>
-      </c>
-      <c r="C291" t="s">
-        <v>874</v>
-      </c>
-      <c r="D291" t="s">
-        <v>875</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="31">
-        <v>291</v>
-      </c>
-      <c r="B292" t="s">
-        <v>877</v>
-      </c>
-      <c r="C292" t="s">
-        <v>878</v>
-      </c>
-      <c r="D292" t="s">
-        <v>879</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="19">
-        <v>292</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>881</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>882</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="19">
-        <v>293</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>884</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="31">
-        <v>294</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>888</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="19">
-        <v>295</v>
-      </c>
-      <c r="B296" s="40" t="s">
-        <v>891</v>
-      </c>
-      <c r="C296" s="41" t="s">
-        <v>892</v>
-      </c>
-      <c r="D296" s="40" t="s">
-        <v>893</v>
-      </c>
-      <c r="E296" s="42">
-        <v>0</v>
-      </c>
-      <c r="F296" s="42">
-        <v>0</v>
-      </c>
-      <c r="G296" s="42">
-        <v>0</v>
-      </c>
-      <c r="I296" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="19">
-        <v>296</v>
-      </c>
-      <c r="B297" s="40" t="s">
-        <v>895</v>
-      </c>
-      <c r="C297" s="41" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="40" t="s">
-        <v>897</v>
-      </c>
-      <c r="E297" s="42">
-        <v>0</v>
-      </c>
-      <c r="F297" s="42">
-        <v>0</v>
-      </c>
-      <c r="G297" s="42">
-        <v>0</v>
-      </c>
-      <c r="I297" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="31">
-        <v>297</v>
-      </c>
-      <c r="B298" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="C298" s="41" t="s">
-        <v>927</v>
-      </c>
-      <c r="E298" s="42">
-        <v>1</v>
-      </c>
-      <c r="F298" s="42">
-        <v>1</v>
-      </c>
-      <c r="G298" s="42">
-        <v>1</v>
-      </c>
-      <c r="I298" s="41" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="19">
-        <v>298</v>
-      </c>
-      <c r="B299" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="C299" s="41" t="s">
-        <v>901</v>
-      </c>
-      <c r="D299" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="E299" s="42">
-        <v>0</v>
-      </c>
-      <c r="F299" s="42">
-        <v>0</v>
-      </c>
-      <c r="G299" s="42">
-        <v>0</v>
-      </c>
-      <c r="I299" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="19">
-        <v>299</v>
-      </c>
-      <c r="B300" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="C300" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="D300" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="E300" s="42">
-        <v>1</v>
-      </c>
-      <c r="F300" s="42">
-        <v>1</v>
-      </c>
-      <c r="G300" s="42">
-        <v>1</v>
-      </c>
-      <c r="I300" s="43" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="31">
-        <v>300</v>
-      </c>
-      <c r="B301" s="46" t="s">
-        <v>906</v>
-      </c>
-      <c r="C301" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="D301" s="46" t="s">
-        <v>907</v>
-      </c>
-      <c r="E301" s="48">
-        <v>1</v>
-      </c>
-      <c r="F301" s="48">
-        <v>1</v>
-      </c>
-      <c r="G301" s="48">
-        <v>1</v>
-      </c>
-      <c r="H301" s="48"/>
-      <c r="I301" s="47" t="s">
+    <row r="304" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="16">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>913</v>
+      </c>
+      <c r="C304" t="s">
+        <v>914</v>
+      </c>
+      <c r="D304" t="s">
+        <v>915</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="23" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="16">
+        <v>304</v>
+      </c>
+      <c r="B305" s="24" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="19">
-        <v>301</v>
-      </c>
-      <c r="B302" s="46" t="s">
-        <v>908</v>
-      </c>
-      <c r="C302" s="47" t="s">
-        <v>923</v>
-      </c>
-      <c r="D302" s="46" t="s">
-        <v>909</v>
-      </c>
-      <c r="E302" s="48">
-        <v>1</v>
-      </c>
-      <c r="F302" s="48">
-        <v>1</v>
-      </c>
-      <c r="G302" s="48">
-        <v>1</v>
-      </c>
-      <c r="H302" s="48"/>
-      <c r="I302" s="47" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="31">
-        <v>302</v>
-      </c>
-      <c r="B303" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="C303" s="44" t="s">
-        <v>912</v>
-      </c>
-      <c r="D303" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E303" s="2">
-        <v>1</v>
-      </c>
-      <c r="F303" s="2">
-        <v>1</v>
-      </c>
-      <c r="G303" s="2">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2"/>
-      <c r="I303" s="43" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="19">
-        <v>303</v>
-      </c>
-      <c r="B304" t="s">
-        <v>914</v>
-      </c>
-      <c r="C304" t="s">
-        <v>915</v>
-      </c>
-      <c r="D304" t="s">
-        <v>916</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="43" t="s">
+      <c r="C305" s="25" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="19">
-        <v>304</v>
-      </c>
-      <c r="B305" s="46" t="s">
-        <v>925</v>
-      </c>
-      <c r="C305" s="47" t="s">
+      <c r="D305" s="24" t="s">
         <v>918</v>
       </c>
-      <c r="D305" s="46" t="s">
+      <c r="E305" s="26">
+        <v>1</v>
+      </c>
+      <c r="F305" s="26">
+        <v>1</v>
+      </c>
+      <c r="G305" s="26">
+        <v>1</v>
+      </c>
+      <c r="H305" s="26"/>
+      <c r="I305" s="25" t="s">
         <v>919</v>
-      </c>
-      <c r="E305" s="48">
-        <v>1</v>
-      </c>
-      <c r="F305" s="48">
-        <v>1</v>
-      </c>
-      <c r="G305" s="48">
-        <v>1</v>
-      </c>
-      <c r="H305" s="48"/>
-      <c r="I305" s="47" t="s">
-        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.5/game_module_config_cjj.xlsx
+++ b/config_1.5/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="936">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3877,6 +3877,38 @@
   </si>
   <si>
     <t>双十二→庆典礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_013_ffyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅小游戏版块上浮弹幕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_013_FFYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--转盘模板（畅玩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_ZP1Manager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4389,13 +4421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ305"/>
+  <dimension ref="A1:AJ307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C289" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
+      <selection pane="bottomRight" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12335,6 +12367,58 @@
         <v>919</v>
       </c>
     </row>
+    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="16">
+        <v>305</v>
+      </c>
+      <c r="B306" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="C306" s="25" t="s">
+        <v>931</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="E306" s="26">
+        <v>1</v>
+      </c>
+      <c r="F306" s="26">
+        <v>1</v>
+      </c>
+      <c r="G306" s="26">
+        <v>1</v>
+      </c>
+      <c r="I306" s="25" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="16">
+        <v>306</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="D307" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="E307" s="26">
+        <v>1</v>
+      </c>
+      <c r="F307" s="26">
+        <v>1</v>
+      </c>
+      <c r="G307" s="26">
+        <v>1</v>
+      </c>
+      <c r="I307" s="25" t="s">
+        <v>929</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H234"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_1.5/game_module_config_cjj.xlsx
+++ b/config_1.5/game_module_config_cjj.xlsx
@@ -3796,12 +3796,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzhhl</t>
-  </si>
-  <si>
-    <t>Act_039_JZHHLManager</t>
-  </si>
-  <si>
     <t>act_039_jzsjb</t>
   </si>
   <si>
@@ -3848,10 +3842,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子换好礼→圣诞福利→元旦好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>饺子收集榜 → 金元宝榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3909,6 +3899,18 @@
   </si>
   <si>
     <t>Act_Ty_ZP1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼→欢乐福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4427,7 +4429,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C289" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A306" sqref="A306"/>
+      <selection pane="bottomRight" activeCell="B301" sqref="B301:D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10939,7 +10941,7 @@
         <v>754</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D257" s="25" t="s">
         <v>755</v>
@@ -10954,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="25" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12055,7 +12057,7 @@
         <v>898</v>
       </c>
       <c r="C298" s="25" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="26">
@@ -12069,7 +12071,7 @@
       </c>
       <c r="H298" s="26"/>
       <c r="I298" s="25" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12161,7 +12163,7 @@
         <v>902</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D300" s="18" t="s">
         <v>903</v>
@@ -12212,13 +12214,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="24" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="E301" s="26">
         <v>1</v>
@@ -12231,7 +12233,7 @@
       </c>
       <c r="H301" s="26"/>
       <c r="I301" s="25" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12266,13 +12268,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="24" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E302" s="26">
         <v>1</v>
@@ -12285,7 +12287,7 @@
       </c>
       <c r="H302" s="26"/>
       <c r="I302" s="25" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12293,13 +12295,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="D303" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="C303" s="18" t="s">
-        <v>911</v>
-      </c>
-      <c r="D303" s="18" t="s">
-        <v>912</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12319,25 +12321,25 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>911</v>
+      </c>
+      <c r="C304" t="s">
+        <v>912</v>
+      </c>
+      <c r="D304" t="s">
         <v>913</v>
       </c>
-      <c r="C304" t="s">
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="23" t="s">
         <v>914</v>
-      </c>
-      <c r="D304" t="s">
-        <v>915</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="23" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12345,13 +12347,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="24" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D305" s="24" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E305" s="26">
         <v>1</v>
@@ -12364,7 +12366,7 @@
       </c>
       <c r="H305" s="26"/>
       <c r="I305" s="25" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12372,13 +12374,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="24" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C306" s="25" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D306" s="24" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E306" s="26">
         <v>1</v>
@@ -12390,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="25" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12398,13 +12400,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="24" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D307" s="24" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E307" s="26">
         <v>1</v>
@@ -12416,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="25" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.5/game_module_config_cjj.xlsx
+++ b/config_1.5/game_module_config_cjj.xlsx
@@ -4426,10 +4426,10 @@
   <dimension ref="A1:AJ307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C289" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B301" sqref="B301:D301"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6384,13 +6384,13 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>647</v>
